--- a/upi tect cases.xlsx
+++ b/upi tect cases.xlsx
@@ -4,13 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11255" windowHeight="6984" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="11255" windowHeight="6984" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Registration &amp; Authentication" sheetId="1" r:id="rId1"/>
     <sheet name="UPI Payment Flow" sheetId="2" r:id="rId2"/>
     <sheet name="Request Money Feature" sheetId="3" r:id="rId3"/>
     <sheet name="Security" sheetId="4" r:id="rId4"/>
+    <sheet name="sweetshop.netlify.app" sheetId="5" r:id="rId5"/>
+    <sheet name="shino.deparkcalc" sheetId="6" r:id="rId6"/>
+    <sheet name="shop.polymer-pr" sheetId="7" r:id="rId7"/>
+    <sheet name="todolist.james" sheetId="8" r:id="rId8"/>
+    <sheet name="Task 3" sheetId="9" r:id="rId9"/>
+    <sheet name="Bug Login Template" sheetId="10" r:id="rId10"/>
+    <sheet name="Types of testing" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="353">
   <si>
     <t>Functional Requirements:</t>
   </si>
@@ -135,6 +142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.Open UPI app</t>
     </r>
     <r>
@@ -230,6 +243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.Open UPI app</t>
     </r>
     <r>
@@ -301,6 +320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.Open UPI app</t>
     </r>
     <r>
@@ -372,6 +397,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.Open UPI app</t>
     </r>
     <r>
@@ -487,6 +518,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12345678@dfg</t>
     </r>
     <r>
@@ -558,6 +595,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.Enter UPI ID</t>
     </r>
     <r>
@@ -620,6 +663,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12345678@dfg</t>
     </r>
     <r>
@@ -691,6 +740,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.Enter UPI ID</t>
     </r>
     <r>
@@ -762,6 +817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12378@dfg</t>
     </r>
     <r>
@@ -827,6 +888,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.Enter UPI ID</t>
     </r>
     <r>
@@ -889,6 +956,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12345678@dfg</t>
     </r>
     <r>
@@ -960,6 +1033,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.Enter payee UPI ID</t>
     </r>
     <r>
@@ -1003,6 +1082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12345678@dfg</t>
     </r>
     <r>
@@ -1046,6 +1131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Approve payment request</t>
     </r>
     <r>
@@ -1094,6 +1185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Enter UPI ID: 12345678@dfg</t>
     </r>
     <r>
@@ -1197,6 +1294,1357 @@
   </si>
   <si>
     <t>Should complete within 5 seconds</t>
+  </si>
+  <si>
+    <t>Verify that users can browse sweets</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.                
+2. View the list of sweets.</t>
+  </si>
+  <si>
+    <t>List of sweets should be displayed with images, names, and prices.</t>
+  </si>
+  <si>
+    <t>List of sweets is displayed with images, names, and prices.</t>
+  </si>
+  <si>
+    <t>Verify that users can add a sweet to the basket.</t>
+  </si>
+  <si>
+    <t>1. On the homepage, click 'Add to Basket' for a sweet.</t>
+  </si>
+  <si>
+    <t>The sweet should be added to the basket, and the basket count updates.</t>
+  </si>
+  <si>
+    <t>The sweet is added to the basket, and the basket count updates.</t>
+  </si>
+  <si>
+    <t>Verify that users can view basket contents.</t>
+  </si>
+  <si>
+    <t>1. Add a sweet to the basket.
+2. Click on the 'Basket' link.</t>
+  </si>
+  <si>
+    <t>Basket page should be displays the added sweet with quantity and price.</t>
+  </si>
+  <si>
+    <t>Basket page displays the added sweet with quantity and price.</t>
+  </si>
+  <si>
+    <t>Verify that users can remove a sweet from the basket.</t>
+  </si>
+  <si>
+    <t>1. Add a sweet to the basket.
+2. View the basket.
+3. Click 'Remove' next to the sweet.</t>
+  </si>
+  <si>
+    <t>The sweet shhould be removed from the basket, and the basket count updates.</t>
+  </si>
+  <si>
+    <t>The sweet is removed from the basket, and the basket count updates.</t>
+  </si>
+  <si>
+    <t>Verify that the 'About' page is accessible.</t>
+  </si>
+  <si>
+    <t>1. Click on the 'About' link.</t>
+  </si>
+  <si>
+    <t>About' page should be displayed with relevant information.</t>
+  </si>
+  <si>
+    <t>About' page is displayed with relevant information.</t>
+  </si>
+  <si>
+    <t>Verify that the 'Login' page is accessible.</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Login' link.</t>
+  </si>
+  <si>
+    <t>Login' page should be displayed with username and password fields.</t>
+  </si>
+  <si>
+    <t>Login' page is displayed with username and password fields.</t>
+  </si>
+  <si>
+    <t>Verify that the basket count updates correctly.</t>
+  </si>
+  <si>
+    <t>1. Add multiple sweets to the basket.
+2. Remove one sweet.
+3. Add another sweet.</t>
+  </si>
+  <si>
+    <t>Basket count value should be reflects the correct number of items.</t>
+  </si>
+  <si>
+    <t>Basket countvalue is reflects the correct number of items.</t>
+  </si>
+  <si>
+    <t>Verify that the 'Add to Basket' button works without logging in.</t>
+  </si>
+  <si>
+    <t>1. Without logging in, click 'Add to Basket' for a sweet.</t>
+  </si>
+  <si>
+    <t>Sweet should be added to the basket without requiring login.</t>
+  </si>
+  <si>
+    <t>Sweet is added to the basket without requiring login.</t>
+  </si>
+  <si>
+    <t>Verify that the application handles adding the same sweet multiple times.</t>
+  </si>
+  <si>
+    <t>1. Add the same sweet to the basket multiple times.</t>
+  </si>
+  <si>
+    <t>Basket shows be shows the sweet with the correct quantity and total price.</t>
+  </si>
+  <si>
+    <t>Basket shows the sweet with the correct quantity and total price.</t>
+  </si>
+  <si>
+    <t>Verify that the application displays an appropriate message when the basket is empty.</t>
+  </si>
+  <si>
+    <t>1. Ensure the basket is empty.
+2. View the basket.</t>
+  </si>
+  <si>
+    <t>Message indicating the basket should be empty is displayed.</t>
+  </si>
+  <si>
+    <t>Message indicating the basket is empty is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the checkout button is working or not </t>
+  </si>
+  <si>
+    <t>1. Add a sweet to the basket . 2. click 'Checkout'.</t>
+  </si>
+  <si>
+    <t>User should be checkout the page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is not checkout the page </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Sweetshop.netlify.app</t>
+  </si>
+  <si>
+    <t>Created By:</t>
+  </si>
+  <si>
+    <t>Alliya</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Bug Page</t>
+  </si>
+  <si>
+    <t>Bug_Id</t>
+  </si>
+  <si>
+    <t>Bug Description</t>
+  </si>
+  <si>
+    <t>Bug Step</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status(QA)</t>
+  </si>
+  <si>
+    <t>Status(Dev)</t>
+  </si>
+  <si>
+    <t>(High,Low,Midium)</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>The 'Checkout' button is present but not functional. Clicking it does not proceed to any checkout process.</t>
+  </si>
+  <si>
+    <t>1.Go to url: https://sweetshop.netlify.app/
+2Add a sweet to the basket.                  3.Click on the "checkout" button</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>HIgh</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Verify that default value is correctly display</t>
+  </si>
+  <si>
+    <t>1. Open the website                
+2.observe default values</t>
+  </si>
+  <si>
+    <t>Default values should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Default values is displayed correctly</t>
+  </si>
+  <si>
+    <t>verify that short term parking cost is display</t>
+  </si>
+  <si>
+    <t>1. Select “Short-Term Parking”          
+2. enter valid dates/times                                                                      3. click calculate</t>
+  </si>
+  <si>
+    <t>Enter Date:01/01/2025      Enter Time: 12:00am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct cost should be display </t>
+  </si>
+  <si>
+    <t>Correct cost is display</t>
+  </si>
+  <si>
+    <t>Verify that user can get a cost with past date and time</t>
+  </si>
+  <si>
+    <t>Error message should appear</t>
+  </si>
+  <si>
+    <t>Error message is not display</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Verify that users can get a cost with same check-in and check-out date and time.</t>
+  </si>
+  <si>
+    <t>1. Select “Short-Term Parking”          
+2. enter same dates/times                                                                      3. click calculate</t>
+  </si>
+  <si>
+    <t>Minimal charges should be display</t>
+  </si>
+  <si>
+    <t>No changes in cost value</t>
+  </si>
+  <si>
+    <t>Verify that the different types of praking value is match or not</t>
+  </si>
+  <si>
+    <t>1. Select “Short-Term Parking”          
+2. enter dates/times                                                                      3. click calculate</t>
+  </si>
+  <si>
+    <t>Cost should be same as diffine the structure value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost is not same </t>
+  </si>
+  <si>
+    <t>Verify that Parking is available or not message is show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage should be shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage is not shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.shino.de/parkcalc/</t>
+  </si>
+  <si>
+    <t>Incorrect cost value is display for all parking term</t>
+  </si>
+  <si>
+    <t>No message is display for aloted parking available or not</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>No validation for past dates</t>
+  </si>
+  <si>
+    <t>1. Select “Short-Term Parking”          
+2. enter past dates/times                                                                      3. click calculate</t>
+  </si>
+  <si>
+    <t>Suggested Improvements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parking Cost Calculator:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implement error handling for invalid dates, optimize UI for better user experience.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that home is loaded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the website                
+</t>
+  </si>
+  <si>
+    <t>Home should be loaded with no error</t>
+  </si>
+  <si>
+    <t>home page is load with an error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website is not open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the URL         
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polymer E-Commerce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Improve search filtering</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that new task is added or not</t>
+  </si>
+  <si>
+    <t>1. Open the website                
+2.Write the task and click enter</t>
+  </si>
+  <si>
+    <t>Anything you have to write</t>
+  </si>
+  <si>
+    <t>Task should be enter</t>
+  </si>
+  <si>
+    <t>Task is enter correctly</t>
+  </si>
+  <si>
+    <t>verify that the added task is delete or not</t>
+  </si>
+  <si>
+    <t>1. Open the website                
+2.Click on the task                                                   3. click delete</t>
+  </si>
+  <si>
+    <t>Task should be deleted</t>
+  </si>
+  <si>
+    <t>Task is delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that task is edit or not </t>
+  </si>
+  <si>
+    <t>1. Open the website                
+2.Click on the task                                                   3. Edit the task                                                          4. Click enter</t>
+  </si>
+  <si>
+    <t>Task should be edited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task is edit </t>
+  </si>
+  <si>
+    <t>Verify that your task is not complete and after refersh the page the task is visible or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the website                
+2.Add the task                                                      3. Referesh the page                                                                                                          </t>
+  </si>
+  <si>
+    <t>Task should be visible</t>
+  </si>
+  <si>
+    <t>Task is visible</t>
+  </si>
+  <si>
+    <t>Verify that the empty task is added or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the website                
+2.Add the task                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>Task should not be added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task is not adding </t>
+  </si>
+  <si>
+    <t>when my task is complete but the task is not visible with line</t>
+  </si>
+  <si>
+    <t>1. Select the task          
+2. click on the task</t>
+  </si>
+  <si>
+    <t>midium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To-Do List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add user login to save tasks permanently, improve task editing functionality.</t>
+    </r>
+  </si>
+  <si>
+    <t>Task 3: Write User Stories for Online Banking.
+● Objective: Create user stories to describe key functionalities of the online banking
+demo.
+● https://www.digindemo.com
+● Explore the demo application to understand user interactions</t>
+  </si>
+  <si>
+    <t>Account Balance Inquiry</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to view my account balances in real-time so that I can stay informed about my financial status.</t>
+  </si>
+  <si>
+    <t>Internal Funds Transfer</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to transfer money between my own accounts so that I can manage my funds efficiently.</t>
+  </si>
+  <si>
+    <t>External Account Transfers</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to transfer money to external accounts so that I can send funds to other individuals or institutions.</t>
+  </si>
+  <si>
+    <t>Bill Payment Management</t>
+  </si>
+  <si>
+    <t>User Stories:</t>
+  </si>
+  <si>
+    <t>As a user, I want to add new payees to my account so that I can pay my bills conveniently.</t>
+  </si>
+  <si>
+    <t>As a user, I want to set up eBills so that I can receive and pay my bills electronically.</t>
+  </si>
+  <si>
+    <t>As a user, I want to edit or delete payees so that I can manage my bill payments effectively.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search and sort my payments so that I can track my bill payment history easily.</t>
+  </si>
+  <si>
+    <t>Alert Notifications</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to set up alerts for various account activities so that I can stay informed about important transactions and account changes.</t>
+  </si>
+  <si>
+    <t>Expedited Payments</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to make expedited payments so that I can ensure timely transactions when needed.</t>
+  </si>
+  <si>
+    <t>Money Management Tools</t>
+  </si>
+  <si>
+    <t>As a user, I want to add and view outside accounts so that I can have a comprehensive view of my finances.</t>
+  </si>
+  <si>
+    <t>As a user, I want to categorize my transactions so that I can better understand and manage my spending habits.</t>
+  </si>
+  <si>
+    <t>As a user, I want to set financial goals so that I can plan and track my savings or debt repayment progress.</t>
+  </si>
+  <si>
+    <t>As a user, I want to view my net worth over time so that I can assess my financial health.</t>
+  </si>
+  <si>
+    <t>Security Authorization</t>
+  </si>
+  <si>
+    <t>As a user, I want to manage my security contacts so that I can ensure my account is protected.</t>
+  </si>
+  <si>
+    <t>As a user, I want to set up login verification methods so that I can enhance the security of my online banking access.</t>
+  </si>
+  <si>
+    <t>Mobile Banking Access</t>
+  </si>
+  <si>
+    <t>User Story: As a user, I want to access my banking services via a mobile application so that I can manage my finances on the go.</t>
+  </si>
+  <si>
+    <t>Person-to-Person Payments</t>
+  </si>
+  <si>
+    <t>As a user, I want to add contacts for person-to-person payments so that I can quickly send money to friends and family.</t>
+  </si>
+  <si>
+    <t>As a user, I want to send and request money from my contacts so that I can handle personal transactions efficiently.</t>
+  </si>
+  <si>
+    <t>Unique identifier for the bug</t>
+  </si>
+  <si>
+    <t>A clear and concise description of the issue, including what is happening and what should be expected</t>
+  </si>
+  <si>
+    <t>Step-by-step instructions to recreate the bug) 1. 2. 3.</t>
+  </si>
+  <si>
+    <t>Open, In Progress, Fixed, Closed, Reopened</t>
+  </si>
+  <si>
+    <t>Bug Logging Template</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Bug ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Unique identifier for the bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Short and descriptive title for the bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (A clear and concise description of the issue, including what is happening and what should be expected)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Step-by-step instructions to recreate the bug) 1. 2. 3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (What should happen when the steps are followed correctly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (What actually happens when the steps are followed)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. Severity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Critical, High, Medium, Low – based on the impact of the bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8. Priority:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Urgent, High, Medium, Low – based on business needs)</t>
+    </r>
+  </si>
+  <si>
+    <t>9. Environment:</t>
+  </si>
+  <si>
+    <t>OS:</t>
+  </si>
+  <si>
+    <t>Browser/Device:</t>
+  </si>
+  <si>
+    <t>Version:</t>
+  </si>
+  <si>
+    <t>Other relevant details:</t>
+  </si>
+  <si>
+    <r>
+      <t>10. Attachments:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Screenshots, videos, logs, or any supporting documents)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11. Assigned To:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Name of the developer or team responsible for fixing the bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12. Reported By:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Name of the person who found the bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13. Date Reported:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Date when the bug was logged)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14. Status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Open, In Progress, Fixed, Closed, Reopened)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15. Comments/Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Additional information, such as workarounds or related issues)</t>
+    </r>
+  </si>
+  <si>
+    <t>Types of Testing</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Ensures that the application functions as expected based on requirements.</t>
+  </si>
+  <si>
+    <t>a) Unit Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing individual components or functions of the software.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing a login function to verify if it correctly validates user credentials.</t>
+    </r>
+  </si>
+  <si>
+    <t>b) Integration Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensuring that different modules of the application work together correctly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checking if a payment module integrates properly with an order-processing module.</t>
+    </r>
+  </si>
+  <si>
+    <t>c) System Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing the complete system as a whole to verify it meets the specified requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Running an end-to-end test on an e-commerce website, from adding items to checkout.</t>
+    </r>
+  </si>
+  <si>
+    <t>d) Acceptance Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Determines if the system meets business requirements and is ready for deployment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A client testing a new banking application before approving it for production use.</t>
+    </r>
+  </si>
+  <si>
+    <t>e) Regression Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verifying that new code changes do not adversely affect the existing system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: After fixing a login bug, testing other functionalities to ensure nothing else breaks.</t>
+    </r>
+  </si>
+  <si>
+    <t>f) Smoke Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A quick test to ensure the basic functionalities of an application work.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: After a new software build, checking if the application launches without crashing.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Non-Functional Testing</t>
+  </si>
+  <si>
+    <t>Focuses on aspects like performance, usability, and security rather than functionality.</t>
+  </si>
+  <si>
+    <t>a) Performance Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Evaluates how well the application performs under load.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing how a website behaves with 10,000 concurrent users.</t>
+    </r>
+  </si>
+  <si>
+    <t>b) Load Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Examining how the system handles a high volume of users or data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checking response times when 100,000 users log in simultaneously.</t>
+    </r>
+  </si>
+  <si>
+    <t>c) Stress Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Determines the system’s stability under extreme conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Increasing the number of requests to a web server until it crashes.</t>
+    </r>
+  </si>
+  <si>
+    <t>d) Security Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Identifying vulnerabilities and ensuring data protection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checking if a banking application is vulnerable to SQL injection attacks.</t>
+    </r>
+  </si>
+  <si>
+    <t>e) Usability Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensuring the application is user-friendly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing how easily users can navigate an online shopping website.</t>
+    </r>
+  </si>
+  <si>
+    <t>f) Compatibility Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verifying that the application works across different devices and browsers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checking if a mobile app runs smoothly on both Android and iOS.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Types of Testing</t>
+  </si>
+  <si>
+    <t>a) Alpha Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conducted by internal teams before releasing software to external users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Employees testing an upcoming video game before public beta release.</t>
+    </r>
+  </si>
+  <si>
+    <t>b) Beta Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Software is tested by real users before the final release.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Google releasing a beta version of Android OS for users to test and provide feedback.</t>
+    </r>
+  </si>
+  <si>
+    <t>c) Exploratory Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testers explore the application without predefined test cases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A tester randomly clicking buttons and input fields to uncover unexpected bugs.</t>
+    </r>
+  </si>
+  <si>
+    <t>d) Ad-hoc Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Performed without formal plans or documentation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A developer manually testing a new feature before pushing it to QA.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1209,7 +2657,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +2674,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1255,13 +2753,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1408,7 +2899,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1418,6 +2909,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,12 +3105,72 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1658,21 +3215,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,197 +3334,257 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2042,6 +3644,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2187575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>351155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3338195" y="598805"/>
+          <a:ext cx="4747895" cy="1383665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2320,327 +3969,327 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" ht="19.5" spans="1:8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" ht="18.9" spans="2:2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="2:2">
-      <c r="B4" s="4"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" ht="18.15" spans="2:2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" ht="18.15" spans="2:2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="2:2">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" ht="35.55" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" ht="18.15" spans="2:2">
+      <c r="B9" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="35.55" spans="2:2">
-      <c r="B10" s="16" t="s">
+    <row r="10" ht="18.15" spans="2:2">
+      <c r="B10" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" ht="18.15" spans="2:2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="2:2">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" ht="35.55" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" ht="18.15" spans="2:2">
+      <c r="B14" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="35.55" spans="2:2">
-      <c r="B15" s="16" t="s">
+    <row r="15" ht="18.15" spans="2:2">
+      <c r="B15" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="2:2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17" ht="18.15" spans="2:2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="2:2">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" ht="35.55" spans="2:2">
-      <c r="B19" s="16" t="s">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" ht="18.15" spans="2:2">
+      <c r="B19" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="18.15" spans="2:2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="35.55" spans="2:2">
-      <c r="B21" s="16" t="s">
+    <row r="21" ht="18.15" spans="2:2">
+      <c r="B21" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="52.95" spans="2:2">
-      <c r="B22" s="16" t="s">
+    <row r="22" ht="18.15" spans="2:2">
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="2:2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" ht="18.15" spans="2:2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="2:2">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" ht="35.55" spans="2:2">
-      <c r="B26" s="16" t="s">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" ht="18.15" spans="2:2">
+      <c r="B26" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="35.55" spans="2:2">
-      <c r="B27" s="16" t="s">
+    <row r="27" ht="18.15" spans="2:2">
+      <c r="B27" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="35.55" spans="2:2">
-      <c r="B28" s="16" t="s">
+    <row r="28" ht="18.15" spans="2:2">
+      <c r="B28" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="35.55" spans="2:2">
-      <c r="B29" s="16" t="s">
+    <row r="29" ht="18.15" spans="2:2">
+      <c r="B29" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" ht="18.15" spans="2:2">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" ht="15.15" spans="2:2">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" ht="35.55" spans="2:2">
-      <c r="B33" s="16" t="s">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" ht="18.15" spans="2:2">
+      <c r="B33" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" ht="35.55" spans="2:2">
-      <c r="B34" s="16" t="s">
+    <row r="34" ht="18.15" spans="2:2">
+      <c r="B34" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" ht="18.15" spans="2:2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" ht="35.55" spans="2:2">
-      <c r="B37" s="14" t="s">
+    <row r="37" ht="18.15" spans="2:2">
+      <c r="B37" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" ht="35.55" spans="2:2">
-      <c r="B38" s="14" t="s">
+    <row r="38" ht="18.15" spans="2:2">
+      <c r="B38" s="39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" ht="52.95" spans="2:2">
-      <c r="B39" s="14" t="s">
+    <row r="39" ht="18.15" spans="2:2">
+      <c r="B39" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" ht="35.55" spans="2:2">
-      <c r="B40" s="14" t="s">
+    <row r="40" ht="18.15" spans="2:2">
+      <c r="B40" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" ht="15.15"/>
-    <row r="43" ht="37.5" spans="1:7">
-      <c r="A43" s="1" t="s">
+    <row r="43" ht="19.5" spans="1:7">
+      <c r="A43" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" ht="54.3" spans="1:7">
-      <c r="A44" s="5">
+      <c r="A44" s="30">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" ht="27.15" spans="1:7">
-      <c r="A45" s="5">
+      <c r="A45" s="30">
         <v>2</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" ht="53.55" spans="1:7">
-      <c r="A46" s="5">
+      <c r="A46" s="30">
         <v>3</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="53.55" spans="1:7">
-      <c r="A47" s="5">
+      <c r="A47" s="30">
         <v>4</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" ht="79.95" spans="1:7">
-      <c r="A48" s="5">
+      <c r="A48" s="30">
         <v>5</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2653,13 +4302,549 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="37.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="92.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="48.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.15"/>
+    <row r="3" ht="105.15" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="35.55" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" ht="18.15" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45871</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C6:D98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="91.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="18" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" ht="23.4" spans="3:4">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="4:4">
+      <c r="D17" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="4:4">
+      <c r="D32" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="4:4">
+      <c r="D37" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" ht="23.4" spans="3:4">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="4:4">
+      <c r="D48" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="4:4">
+      <c r="D53" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="4:4">
+      <c r="D58" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="4:4">
+      <c r="D63" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="4:4">
+      <c r="D68" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="4:4">
+      <c r="D73" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" ht="23.4" spans="3:4">
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="4:4">
+      <c r="D80" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="4:4">
+      <c r="D85" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" ht="18" spans="4:4">
+      <c r="D90" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="4:4">
+      <c r="D95" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2672,141 +4857,141 @@
     <col min="6" max="6" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="146.7" spans="1:7">
-      <c r="A2" s="5">
+    <row r="2" ht="67.5" spans="1:7">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" ht="132.75" spans="1:7">
-      <c r="A3" s="5">
+    <row r="3" ht="66.75" spans="1:7">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="145.95" spans="1:7">
-      <c r="A4" s="5">
+    <row r="4" ht="66.75" spans="1:7">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="145.95" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" ht="66.75" spans="1:7">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="159.15" spans="1:7">
-      <c r="A6" s="5">
+    <row r="6" ht="79.95" spans="1:7">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2835,116 +5020,116 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="73.5" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="93.9" spans="1:7">
-      <c r="A2" s="5">
+    <row r="2" ht="54.3" spans="1:7">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" ht="79.95" spans="1:7">
-      <c r="A3" s="5">
+    <row r="3" ht="40.35" spans="1:7">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="79.95" spans="1:7">
-      <c r="A4" s="5">
+    <row r="4" ht="40.35" spans="1:7">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="145.95" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" ht="66.75" spans="1:7">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2959,7 +5144,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2974,159 +5159,159 @@
     <col min="7" max="7" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="73.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" spans="1:8">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="80.7" spans="1:8">
-      <c r="A2" s="5">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" ht="15.9" spans="1:8">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="79.95" spans="1:8">
-      <c r="A3" s="5">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="79.95" spans="1:8">
-      <c r="A4" s="5">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" ht="15.9" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" ht="66.75" spans="1:8">
-      <c r="A6" s="5">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:8">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" ht="66.75" spans="1:8">
-      <c r="A7" s="5">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" ht="15.15" spans="1:8">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" ht="106.35" spans="1:8">
-      <c r="A8" s="5">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" ht="27.15" spans="1:8">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" ht="15.15" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3135,4 +5320,2070 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="78.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="29.55" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" ht="18.15" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" ht="18.15" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" ht="18.15" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45871</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" ht="15.15" spans="1:10">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" ht="36.75" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" ht="15.15" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" ht="101.55" spans="1:10">
+      <c r="A22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="24">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" ht="15.15" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" ht="15.15" spans="1:10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="100.444444444444" customWidth="1"/>
+    <col min="3" max="3" width="49.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="43.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="72.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="29.55" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15"/>
+    <row r="9" ht="18.15" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="18.15" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="18.15" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45871</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="15.15" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="36.75" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" ht="43.95" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" ht="43.95" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" ht="43.95" spans="1:9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="24">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="20" ht="18" spans="2:2">
+      <c r="B20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="73.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="43.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="45.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="33.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="29.55" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="23"/>
+    </row>
+    <row r="10" ht="15.15"/>
+    <row r="11" ht="18.15" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="18.15" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" ht="18.15" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45871</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" ht="15.15" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" ht="36.75" spans="1:9">
+      <c r="A15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" ht="29.55" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" ht="15.15" spans="1:9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" ht="15.15" spans="1:9">
+      <c r="A19" s="7"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="22" ht="18" spans="2:2">
+      <c r="B22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="73.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="43.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="45.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="33.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="29.55" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="57.6" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15"/>
+    <row r="9" ht="18.15" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="18.15" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="18.15" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45871</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="15.15" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="36.75" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" ht="29.55" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" ht="15.15" spans="1:9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="21" ht="18" spans="2:2">
+      <c r="B21" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D3:K61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="57.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="15.15"/>
+    <row r="4" ht="79.95" spans="4:11">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="15.15" spans="4:11">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="15.15" spans="4:11">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="15.15" spans="4:11">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="15.15" spans="4:11">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="15.15" spans="4:11">
+      <c r="D9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="15.15" spans="4:11">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="15.15" spans="4:11">
+      <c r="D11" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="15.15" spans="4:11">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" ht="15.15" spans="4:11">
+      <c r="D13" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" ht="15.15" spans="4:11">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" ht="15.15" spans="4:11">
+      <c r="D15" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" ht="15.15" spans="4:11">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" ht="15.15" spans="4:11">
+      <c r="D17" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" ht="15.15" spans="4:11">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" ht="15.15" spans="4:11">
+      <c r="D19" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" ht="15.15" spans="4:11">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" ht="15.15" spans="4:11">
+      <c r="D21" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" ht="15.15" spans="4:11">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" ht="27.15" spans="4:11">
+      <c r="D23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" ht="15.15" spans="4:11">
+      <c r="D24" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" ht="15.15" spans="4:11">
+      <c r="D25" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" ht="15.15" spans="4:11">
+      <c r="D26" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" ht="15.15" spans="4:11">
+      <c r="D27" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" ht="15.15" spans="4:11">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" ht="15.15" spans="4:11">
+      <c r="D29" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" ht="15.15" spans="4:11">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" ht="15.15" spans="4:11">
+      <c r="D31" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" ht="15.15" spans="4:11">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" ht="15.15" spans="4:11">
+      <c r="D33" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" ht="15.15" spans="4:11">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" ht="15.15" spans="4:11">
+      <c r="D35" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" ht="15.15" spans="4:11">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" ht="15.15" spans="4:11">
+      <c r="D37" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" ht="15.15" spans="4:11">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" ht="27.15" spans="4:11">
+      <c r="D39" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" ht="15.15" spans="4:11">
+      <c r="D40" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" ht="15.15" spans="4:11">
+      <c r="D41" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" ht="15.15" spans="4:11">
+      <c r="D42" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" ht="15.15" spans="4:11">
+      <c r="D43" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" ht="15.15" spans="4:11">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" ht="15.15" spans="4:11">
+      <c r="D45" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" ht="15.15" spans="4:11">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" ht="27.15" spans="4:11">
+      <c r="D47" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" ht="15.15" spans="4:11">
+      <c r="D48" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" ht="15.15" spans="4:11">
+      <c r="D49" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" ht="15.15" spans="4:11">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" ht="15.15" spans="4:11">
+      <c r="D51" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" ht="15.15" spans="4:11">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" ht="15.15" spans="4:11">
+      <c r="D53" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" ht="15.15" spans="4:11">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" ht="15.15" spans="4:11">
+      <c r="D55" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" ht="15.15" spans="4:11">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" ht="27.15" spans="4:11">
+      <c r="D57" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" ht="15.15" spans="4:11">
+      <c r="D58" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" ht="15.15" spans="4:11">
+      <c r="D59" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" ht="15.15" spans="4:11">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" ht="15.15" spans="4:11">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>